--- a/数据整理/stocks/A股/创业板/300115-长盈精密.xlsx
+++ b/数据整理/stocks/A股/创业板/300115-长盈精密.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>81.27</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.19</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010308</t>
+          <t>006729</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>西藏东财信息产业精选混合C</t>
+          <t>万家中证500指数增强A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>81.27</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006729</t>
+          <t>010308</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>万家中证500指数增强A</t>
+          <t>西藏东财信息产业精选混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.34</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -586,15 +626,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>94.34</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1.58</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>9</v>
       </c>
     </row>
@@ -609,7 +659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,15 +680,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -650,26 +710,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000788</t>
+          <t>540010</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源中国成长灵活配置混合</t>
+          <t>汇丰晋信科技先锋股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.70</t>
+          <t>7.60</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3937</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -678,26 +748,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010307</t>
+          <t>005495</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>西藏东财信息产业精选混合A</t>
+          <t>创金合信科技成长主题股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>90.52</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -706,26 +786,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010308</t>
+          <t>000965</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>西藏东财信息产业精选混合C</t>
+          <t>汇丰晋信新动力混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>90.52</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -734,26 +824,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000965</t>
+          <t>010307</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇丰晋信新动力混合</t>
+          <t>西藏东财信息产业精选混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.28</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -762,26 +862,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>540010</t>
+          <t>163209</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>汇丰晋信科技先锋股票</t>
+          <t>诺安创业板指数增强（LOF）A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.11</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -790,26 +900,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>163209</t>
+          <t>005496</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>诺安创业板指数增强（LOF）A</t>
+          <t>创金合信科技成长主题股票C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>92.10</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -818,25 +938,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010356</t>
+          <t>009726</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>诺安创业板指数增强（LOF）C</t>
+          <t>招商中证500等权重指数增强A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>92.10</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>9</v>
       </c>
     </row>
@@ -846,26 +976,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005495</t>
+          <t>010308</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>创金合信科技成长主题股票A</t>
+          <t>西藏东财信息产业精选混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>90.98</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005496</t>
+          <t>000788</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>创金合信科技成长主题股票C</t>
+          <t>前海开源中国成长灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>90.98</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -902,25 +1052,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>009726</t>
+          <t>009727</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>招商中证500等权重指数增强A</t>
+          <t>招商中证500等权重指数增强C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>94.56</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1.40</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>9</v>
       </c>
     </row>
@@ -930,25 +1090,29 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009727</t>
+          <t>010356</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>招商中证500等权重指数增强C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>94.56</t>
-        </is>
-      </c>
+          <t>诺安创业板指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
         <v>9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300115-长盈精密.xlsx
+++ b/数据整理/stocks/A股/创业板/300115-长盈精密.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1098,7 +1099,6 @@
           <t>诺安创业板指数增强（LOF）C</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
           <t>92.10</t>
@@ -1114,6 +1114,1468 @@
       </c>
       <c r="H12" t="n">
         <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>540008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信低碳先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.1438</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>540003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9673</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>163409</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全绿色投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>58.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5119</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009474</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰致远优势混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>40.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3575</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005730</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>39.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3393</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001643</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>33.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1362</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001644</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.35</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4211</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>880007</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1673</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000462</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>农银主题轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1513</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>960003</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合H</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>77.12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1431</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005386</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银河睿达灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>21.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1341</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001443</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.98</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>27.73</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1158</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001444</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.98</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>27.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1158</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>151002</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银河收益债券</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1098</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011077</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇丰晋信创新先锋股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0932</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010237</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0915</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009215</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>24.52</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0901</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001747</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达瑞祺灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>24.10</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001748</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达瑞祺灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>24.10</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001314</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0786</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001315</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0786</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000534</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长盛高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0783</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000039</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>农银高增长混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>881007</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011325</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000458</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>英大领先回报混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005477</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>168401</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>红土创新转型精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001270</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010238</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010663</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001271</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005387</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>银河睿达灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>21.93</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005478</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010664</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009216</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>24.52</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300115-长盈精密.xlsx
+++ b/数据整理/stocks/A股/创业板/300115-长盈精密.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2581,4 +2582,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000458</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>英大领先回报混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300115-长盈精密.xlsx
+++ b/数据整理/stocks/A股/创业板/300115-长盈精密.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2676,4 +2677,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>37</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.86</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300115-长盈精密.xlsx
+++ b/数据整理/stocks/A股/创业板/300115-长盈精密.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2685,7 +2686,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2696,17 +2697,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2716,14 +2737,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.02</v>
+          <t>008934</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成科技消费股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>82.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3837</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2732,14 +2775,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>37</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.86</v>
+          <t>011578</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信核心成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>49.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2595</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2748,14 +2813,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.64</v>
+          <t>012184</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成创新趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>61.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5364</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2764,13 +2851,797 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>160918</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成中小盘混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>70.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3629</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008274</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>69.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3528</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>080012</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长盛电子信息产业混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2480</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011579</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇丰晋信核心成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2387</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008935</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成科技消费股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1948</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002945</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成盛世精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>68.24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>090009</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160812</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长盛同益成长回报灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008869</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成恒享混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009215</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>26.97</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000458</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>英大领先回报混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008275</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>69.71</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001270</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012185</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成创新趋势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>61.83</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001271</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009216</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>26.97</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011159</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>大成中小盘混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>70.27</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008870</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>大成恒享混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.92</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>37</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.86</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.05</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300115-长盈精密.xlsx
+++ b/数据整理/stocks/A股/创业板/300115-长盈精密.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3540,7 +3541,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3551,17 +3552,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3571,14 +3592,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.92</v>
+          <t>001167</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰科技创新股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2071</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -3587,14 +3630,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.02</v>
+          <t>210009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰核心资源混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1845</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -3603,14 +3668,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>37</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13.86</v>
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1702</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -3619,14 +3706,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.64</v>
+          <t>000458</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>英大领先回报混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -3635,13 +3744,205 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001270</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001271</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.92</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>37</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.86</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.05</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300115-长盈精密.xlsx
+++ b/数据整理/stocks/A股/创业板/300115-长盈精密.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3825,7 +3826,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3836,17 +3837,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3856,14 +3877,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.62</v>
+          <t>210009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰核心资源混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1711</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -3872,14 +3915,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>21</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.92</v>
+          <t>001167</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰科技创新股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1662</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -3888,14 +3953,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.02</v>
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1658</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -3904,14 +3991,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>37</v>
-      </c>
-      <c r="D5" t="n">
-        <v>13.86</v>
+          <t>002018</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华弘安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>21.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1393</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -3920,14 +4029,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>11</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.64</v>
+          <t>001190</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华弘润灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -3936,13 +4067,449 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>011052</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华弘裕一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>25.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000458</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>英大领先回报混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001270</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004890</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中邮健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002019</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华弘安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>21.66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001271</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011053</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华弘裕一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>25.99</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001191</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华弘润灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>21</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.92</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>37</v>
+      </c>
+      <c r="D6" t="n">
+        <v>13.86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>4</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.05</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300115-长盈精密.xlsx
+++ b/数据整理/stocks/A股/创业板/300115-长盈精密.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>0.89</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>0.62</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>7.92</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02</v>
+        <v>7.92</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>13.86</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="D7" t="n">
-        <v>0.64</v>
+        <v>13.86</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>11</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>4</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -600,6 +617,632 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011578</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7743</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>210009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰核心资源混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1792</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1728</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001167</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金鹰科技创新股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1684</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011579</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇丰晋信核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1487</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000458</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>英大领先回报混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012200</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>71.16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004890</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中邮健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012201</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>71.16</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001270</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001271</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>165524</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001914</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>39.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013084</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006845</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>39.73</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1149,7 +1792,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1433,7 +2076,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2287,7 +2930,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2381,7 +3024,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3843,7 +4486,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4310,7 +4953,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300115-长盈精密.xlsx
+++ b/数据整理/stocks/A股/创业板/300115-长盈精密.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>1.58</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>0.89</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>0.62</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>7.92</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02</v>
+        <v>7.92</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>13.86</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="D8" t="n">
-        <v>0.64</v>
+        <v>13.86</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>11</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>4</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -616,7 +633,953 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010307</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006729</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010308</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006730</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010714</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红远见价值混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4915</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001556</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4004</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>502000</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2985</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001557</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2072</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1643</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001167</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金鹰科技创新股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1623</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>210009</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金鹰核心资源混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1557</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009300</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014155</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰君安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0801</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>210002</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>77.22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014156</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰君安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000458</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>英大领先回报混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008072</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城创业板综指增强</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>016563</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>77.22</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004890</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中邮健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001270</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001271</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>017537</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>东方红远见价值混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1242,7 +2205,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1792,7 +2755,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2076,7 +3039,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2930,7 +3893,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3024,7 +3987,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4486,7 +5449,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4951,212 +5914,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>010307</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>西藏东财信息产业精选混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>81.27</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0318</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006729</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>万家中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.34</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0068</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010308</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>西藏东财信息产业精选混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>81.27</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0067</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006730</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>万家中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.34</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0011</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>